--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18516" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18516" windowHeight="7752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SampleMethod" sheetId="1" r:id="rId1"/>
     <sheet name="ListOfModel" sheetId="2" r:id="rId2"/>
+    <sheet name="HYSYS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleMethod!$A$46:$DF$56</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="47">
   <si>
     <t>Values</t>
   </si>
@@ -159,6 +160,12 @@
   <si>
     <t>index</t>
   </si>
+  <si>
+    <t>Number of evaluations</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
 </sst>
 </file>
 
@@ -196,9 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,6 +275,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4789,6 +4804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4912,6 +4928,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8251,6 +8268,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8387,6 +8405,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8481,6 +8500,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14140,7 +14160,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14233,7 +14252,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14314,7 +14332,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14344,6 +14361,478 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14512270341207348"/>
+          <c:y val="5.1342592592592592E-2"/>
+          <c:w val="0.80196041119860018"/>
+          <c:h val="0.71993839311752694"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HYSYS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HYSYS!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HYSYS!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>13.7522959557195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.5762788453232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.570487307724401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5703585064004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.5702000200646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5686818488771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.557038470787599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5514129286382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.551144499545201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.551039643449</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.550866144635499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.5507413623356</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5506400604453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.530529275102699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7679-45D8-9354-680A4E4047AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="955975423"/>
+        <c:axId val="955970431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="955975423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Evaluations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44003346456692916"/>
+              <c:y val="0.87405074365704283"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955970431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="955970431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Objective values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955975423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -14537,6 +15026,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17156,6 +17685,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17303,6 +18348,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17576,7 +18656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ZM93"/>
   <sheetViews>
-    <sheetView topLeftCell="M69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
@@ -37773,7 +38853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -38200,4 +39280,151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13.7522959557195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>13.5762788453232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>13.570487307724401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13.5703585064004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6" s="4">
+        <v>13.5702000200646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>144</v>
+      </c>
+      <c r="B7" s="4">
+        <v>13.5686818488771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>176</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13.557038470787599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" s="4">
+        <v>13.5514129286382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>272</v>
+      </c>
+      <c r="B10" s="4">
+        <v>13.551144499545201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>336</v>
+      </c>
+      <c r="B11" s="4">
+        <v>13.551039643449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>400</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13.550866144635499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>464</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13.5507413623356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>528</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.5506400604453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>592</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13.530529275102699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>